--- a/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
+++ b/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -415,13 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -430,9 +423,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,45 +460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,15 +476,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,6 +512,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -537,25 +535,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -574,12 +574,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,109 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +622,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,25 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,6 +943,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -954,26 +972,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,9 +1002,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,137 +1045,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,9 +1234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,17 +1653,17 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="24"/>
+    <col min="3" max="3" width="9" style="23"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="16.8796296296296" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.8796296296296" style="23" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
@@ -1678,43 +1675,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="16"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2079,102 +2076,102 @@
       <c r="J12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="30"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="44" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="33" t="s">
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="49" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="50"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="12" t="s">
@@ -2186,11 +2183,11 @@
       <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="3" t="s">
         <v>55</v>
       </c>
@@ -2200,7 +2197,7 @@
       <c r="I16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="3" t="s">
         <v>57</v>
       </c>
@@ -2221,9 +2218,9 @@
         <v>61</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="3"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -2233,8 +2230,8 @@
       <c r="K17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="3" t="s">
         <v>64</v>
       </c>
@@ -2247,21 +2244,21 @@
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="39" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="23"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2309,8 +2306,8 @@
   <sheetPr/>
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2324,7 +2321,7 @@
     <col min="10" max="10" width="19.8611111111111" customWidth="1"/>
     <col min="11" max="11" width="20.6574074074074" customWidth="1"/>
     <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="12.9351851851852" customWidth="1"/>
     <col min="14" max="14" width="10.25" customWidth="1"/>
     <col min="16" max="16" width="16.75" customWidth="1"/>
   </cols>
@@ -3422,7 +3419,7 @@
       <c r="I30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
         <v>39</v>
@@ -3508,7 +3505,7 @@
         <v>34</v>
       </c>
       <c r="O32" s="15"/>
-      <c r="P32" s="21"/>
+      <c r="P32" s="20"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:16">
       <c r="A33" s="2"/>
@@ -3531,9 +3528,9 @@
       <c r="H33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
         <v>33</v>
@@ -3541,8 +3538,8 @@
       <c r="N33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
@@ -3647,7 +3644,7 @@
       <c r="N36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="20"/>
+      <c r="O36" s="16"/>
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16">
@@ -3726,7 +3723,7 @@
       <c r="I39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="3" t="s">
         <v>57</v>
       </c>
@@ -3737,7 +3734,7 @@
         <v>59</v>
       </c>
       <c r="N39" s="3"/>
-      <c r="O39" s="20"/>
+      <c r="O39" s="16"/>
       <c r="P39" s="3" t="s">
         <v>60</v>
       </c>
@@ -3760,14 +3757,14 @@
       <c r="K40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22" t="s">
+      <c r="L40" s="21"/>
+      <c r="M40" s="21" t="s">
         <v>95</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O40" s="20"/>
+      <c r="O40" s="16"/>
       <c r="P40" s="3" t="s">
         <v>55</v>
       </c>
@@ -3791,7 +3788,7 @@
         <v>66</v>
       </c>
       <c r="N41" s="12"/>
-      <c r="O41" s="23"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="16"/>
     </row>
     <row r="43" spans="4:5">
@@ -3847,7 +3844,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3917,10 +3914,10 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="4">
@@ -3949,10 +3946,10 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="4">
@@ -3966,7 +3963,7 @@
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="4">
@@ -4013,10 +4010,10 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I6" s="4">
@@ -4045,10 +4042,10 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>104</v>
       </c>
       <c r="I7" s="4">
@@ -4077,7 +4074,7 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>105</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -4094,7 +4091,7 @@
       <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="4">
@@ -4126,7 +4123,7 @@
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="4">
@@ -4144,7 +4141,7 @@
       <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="50" t="s">
         <v>107</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -4168,8 +4165,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4249,16 +4246,16 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="G3" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="4">
@@ -4284,16 +4281,16 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="G4" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K4" s="4">
@@ -4319,16 +4316,16 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="51" t="s">
+      <c r="G5" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K5" s="4">
@@ -4354,16 +4351,16 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="51" t="s">
+      <c r="G6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K6" s="4">
@@ -4389,16 +4386,16 @@
       <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="51" t="s">
+      <c r="G7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K7" s="4">
@@ -4424,16 +4421,16 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="51" t="s">
+      <c r="G8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="4">
@@ -4459,16 +4456,16 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="51" t="s">
+      <c r="G9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K9" s="4">
@@ -4494,16 +4491,16 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="51" t="s">
+      <c r="G10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K10" s="4">
@@ -4529,16 +4526,16 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="51" t="s">
+      <c r="G11" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="4">
@@ -4564,16 +4561,16 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="51" t="s">
+      <c r="G12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K12" s="4">
@@ -4599,16 +4596,16 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="51" t="s">
+      <c r="G13" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K13" s="4">
@@ -4634,16 +4631,16 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="51" t="s">
+      <c r="G14" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="4">
@@ -4669,16 +4666,16 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="4">
@@ -4704,16 +4701,16 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="51" t="s">
+      <c r="G16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K16" s="4">
@@ -4739,16 +4736,16 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="51" t="s">
+      <c r="G17" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K17" s="4">
@@ -4774,16 +4771,16 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="51" t="s">
+      <c r="G18" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K18" s="4">
@@ -4794,7 +4791,7 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="4">
@@ -4847,10 +4844,10 @@
       <c r="G20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="51" t="s">
+      <c r="H20" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -4882,10 +4879,10 @@
       <c r="G21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="51" t="s">
+      <c r="H21" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -4917,10 +4914,10 @@
       <c r="G22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="51" t="s">
+      <c r="H22" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -4952,10 +4949,10 @@
       <c r="G23" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="51" t="s">
+      <c r="H23" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -4987,10 +4984,10 @@
       <c r="G24" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="51" t="s">
+      <c r="H24" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -5022,10 +5019,10 @@
       <c r="G25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="51" t="s">
+      <c r="H25" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -5057,7 +5054,7 @@
       <c r="G26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="5">
@@ -5092,10 +5089,10 @@
       <c r="G27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -5130,7 +5127,7 @@
       <c r="H28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -5144,7 +5141,7 @@
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="4">
@@ -5165,10 +5162,10 @@
       <c r="H29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="51" t="s">
+      <c r="I29" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K29" s="4">
@@ -5200,10 +5197,10 @@
       <c r="H30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="51" t="s">
+      <c r="I30" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K30" s="7">
@@ -5235,7 +5232,7 @@
       <c r="H31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="50" t="s">
         <v>105</v>
       </c>
       <c r="J31" s="7">
@@ -5284,7 +5281,7 @@
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="4">
@@ -5302,7 +5299,7 @@
       <c r="G33" s="4">
         <v>10</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="50" t="s">
         <v>107</v>
       </c>
       <c r="I33" s="4" t="s">

--- a/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
+++ b/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表（示例）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="117">
   <si>
     <t>数据通路表（示例）</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Zero</t>
-  </si>
-  <si>
-    <t>数据通路表（填写）</t>
   </si>
   <si>
     <t>C</t>
@@ -378,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -417,36 +414,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,9 +429,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,14 +451,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,6 +468,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,15 +511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,8 +542,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +571,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,25 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,13 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,13 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,25 +661,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,37 +721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +925,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -947,66 +1003,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,16 +1042,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,115 +1060,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,21 +1653,21 @@
       <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9" style="23"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="16.8796296296296" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.8833333333333" style="23" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.3796296296296" customWidth="1"/>
-    <col min="12" max="12" width="11.1296296296296" customWidth="1"/>
-    <col min="13" max="13" width="7.12962962962963" customWidth="1"/>
-    <col min="14" max="14" width="7.62962962962963" customWidth="1"/>
+    <col min="11" max="11" width="15.3833333333333" customWidth="1"/>
+    <col min="12" max="12" width="11.1333333333333" customWidth="1"/>
+    <col min="13" max="13" width="7.13333333333333" customWidth="1"/>
+    <col min="14" max="14" width="7.63333333333333" customWidth="1"/>
     <col min="15" max="15" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2306,30 +2303,29 @@
   <sheetPr/>
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="14.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.525" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="14.1296296296296" customWidth="1"/>
-    <col min="7" max="7" width="20.7685185185185" customWidth="1"/>
+    <col min="6" max="6" width="14.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.7666666666667" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="19.8611111111111" customWidth="1"/>
-    <col min="11" max="11" width="20.6574074074074" customWidth="1"/>
+    <col min="10" max="10" width="19.8583333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.6583333333333" customWidth="1"/>
     <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="12.9351851851852" customWidth="1"/>
+    <col min="13" max="13" width="12.9333333333333" customWidth="1"/>
     <col min="14" max="14" width="10.25" customWidth="1"/>
     <col min="16" max="16" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2448,7 +2444,7 @@
         <v>24</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>23</v>
@@ -2459,7 +2455,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>27</v>
@@ -2535,7 +2531,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>27</v>
@@ -2611,7 +2607,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>27</v>
@@ -2649,7 +2645,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>27</v>
@@ -2687,7 +2683,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>27</v>
@@ -2725,7 +2721,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>27</v>
@@ -2763,7 +2759,7 @@
     <row r="13" s="1" customFormat="1" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>27</v>
@@ -2801,7 +2797,7 @@
     <row r="14" s="1" customFormat="1" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>27</v>
@@ -2839,7 +2835,7 @@
     <row r="15" s="1" customFormat="1" spans="1:16">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>27</v>
@@ -2864,7 +2860,7 @@
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>34</v>
@@ -2875,7 +2871,7 @@
     <row r="16" s="1" customFormat="1" spans="1:16">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>27</v>
@@ -2900,7 +2896,7 @@
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>34</v>
@@ -2911,7 +2907,7 @@
     <row r="17" s="1" customFormat="1" spans="1:16">
       <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>27</v>
@@ -2936,7 +2932,7 @@
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>34</v>
@@ -2947,7 +2943,7 @@
     <row r="18" spans="1:17">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>27</v>
@@ -2986,7 +2982,7 @@
     <row r="19" spans="1:17">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>27</v>
@@ -3025,7 +3021,7 @@
     <row r="20" spans="1:17">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>27</v>
@@ -3096,7 +3092,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>27</v>
@@ -3134,7 +3130,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>27</v>
@@ -3172,7 +3168,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>27</v>
@@ -3248,7 +3244,7 @@
     <row r="26" spans="1:16">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>27</v>
@@ -3286,7 +3282,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>27</v>
@@ -3324,7 +3320,7 @@
     <row r="28" spans="1:16">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>27</v>
@@ -3349,7 +3345,7 @@
         <v>39</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>40</v>
@@ -3474,7 +3470,7 @@
     <row r="32" s="1" customFormat="1" spans="1:16">
       <c r="A32" s="2"/>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>27</v>
@@ -3510,7 +3506,7 @@
     <row r="33" s="1" customFormat="1" spans="1:16">
       <c r="A33" s="2"/>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>27</v>
@@ -3536,7 +3532,7 @@
         <v>33</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
@@ -3546,7 +3542,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>27</v>
@@ -3665,7 +3661,7 @@
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>40</v>
@@ -3691,10 +3687,10 @@
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
@@ -3759,7 +3755,7 @@
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>64</v>
@@ -3793,7 +3789,7 @@
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="11"/>
     </row>
@@ -3847,11 +3843,11 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3865,7 +3861,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>56</v>
@@ -3889,10 +3885,10 @@
         <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3900,25 +3896,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="H3" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -3932,25 +3928,25 @@
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -3964,28 +3960,28 @@
         <v>36</v>
       </c>
       <c r="B5" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -3996,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -4005,16 +4001,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -4028,7 +4024,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -4037,16 +4033,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -4060,7 +4056,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -4069,16 +4065,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -4092,25 +4088,25 @@
         <v>44</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -4124,16 +4120,16 @@
         <v>48</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -4142,10 +4138,10 @@
         <v>10</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -4165,21 +4161,21 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="24.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="19.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4194,22 +4190,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>62</v>
@@ -4218,45 +4214,45 @@
         <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -4267,31 +4263,31 @@
         <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -4299,34 +4295,34 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -4337,31 +4333,31 @@
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -4369,34 +4365,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -4404,34 +4400,34 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -4439,34 +4435,34 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -4474,34 +4470,34 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -4509,34 +4505,34 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
@@ -4544,34 +4540,34 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -4579,34 +4575,34 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -4614,34 +4610,34 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -4649,34 +4645,34 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4684,34 +4680,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4719,34 +4715,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4754,34 +4750,34 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4792,31 +4788,31 @@
         <v>36</v>
       </c>
       <c r="B19" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4824,10 +4820,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -4836,22 +4832,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="H20" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4859,10 +4855,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -4871,22 +4867,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="H21" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -4894,10 +4890,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -4906,22 +4902,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="H22" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -4932,7 +4928,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -4941,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -4964,10 +4960,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -4976,22 +4972,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
@@ -4999,10 +4995,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -5011,22 +5007,22 @@
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" s="5">
         <v>1</v>
@@ -5034,10 +5030,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -5046,22 +5042,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="5">
         <v>10</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="5">
         <v>0</v>
@@ -5072,7 +5068,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -5081,22 +5077,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="H27" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
@@ -5107,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -5116,22 +5112,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
@@ -5142,31 +5138,31 @@
         <v>44</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J29" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K29" s="4">
         <v>1</v>
@@ -5174,34 +5170,34 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K30" s="7">
         <v>1</v>
@@ -5209,31 +5205,31 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="7">
         <v>10</v>
@@ -5244,7 +5240,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="5">
         <v>11</v>
@@ -5253,25 +5249,25 @@
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" s="5">
         <v>0</v>
@@ -5282,16 +5278,16 @@
         <v>48</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -5300,13 +5296,13 @@
         <v>10</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
@@ -5314,7 +5310,7 @@
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="11"/>
     </row>

--- a/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
+++ b/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表（示例）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="128">
   <si>
     <t>数据通路表（示例）</t>
   </si>
@@ -301,73 +301,106 @@
     <t>j</t>
   </si>
   <si>
-    <t>ASel</t>
+    <t>WDsel</t>
+  </si>
+  <si>
+    <t>Sign_Sel</t>
+  </si>
+  <si>
+    <t>RegModesel</t>
+  </si>
+  <si>
+    <t>ALU_MODESEL</t>
+  </si>
+  <si>
+    <t>Zerog</t>
+  </si>
+  <si>
+    <t>控制信号取值矩阵（示例）</t>
+  </si>
+  <si>
+    <t>指令</t>
+  </si>
+  <si>
+    <t>Bsel</t>
+  </si>
+  <si>
+    <t>ZeroG</t>
+  </si>
+  <si>
+    <t>PC+4</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>控制信号取值矩阵（填写）</t>
+  </si>
+  <si>
+    <t>RFWr寄存器写</t>
+  </si>
+  <si>
+    <t>EXTOp 扩展</t>
+  </si>
+  <si>
+    <t>ALUOp运算器操作</t>
+  </si>
+  <si>
+    <t>DMWr数据存储器写</t>
+  </si>
+  <si>
+    <t>reg_mux_mode</t>
+  </si>
+  <si>
+    <t>ALUop</t>
+  </si>
+  <si>
+    <t>Zerog有三种状态,等于0,大于0和小于0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>红字部分为选做指令</t>
-  </si>
-  <si>
-    <t>控制信号取值矩阵（示例）</t>
-  </si>
-  <si>
-    <t>指令</t>
-  </si>
-  <si>
-    <t>Bsel</t>
-  </si>
-  <si>
-    <t>ZeroG</t>
-  </si>
-  <si>
-    <t>PC+4</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>控制信号取值矩阵（填写）</t>
-  </si>
-  <si>
-    <t>RFWr寄存器写</t>
-  </si>
-  <si>
-    <t>EXTOp 扩展</t>
-  </si>
-  <si>
-    <t>ALUOp运算器操作</t>
-  </si>
-  <si>
-    <t>DMWr数据存储器写</t>
-  </si>
-  <si>
-    <t>Asel</t>
-  </si>
-  <si>
-    <t>XOR</t>
   </si>
 </sst>
 </file>
@@ -412,31 +445,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +481,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,15 +513,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,48 +537,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,15 +567,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,13 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,25 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +664,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,25 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,31 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,32 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -984,6 +991,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1008,6 +1030,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1030,10 +1063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,137 +1075,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,6 +1260,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1234,6 +1270,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,10 +1696,10 @@
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="23"/>
+    <col min="3" max="3" width="9" style="25"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="16.8833333333333" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.8833333333333" style="25" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
@@ -1672,43 +1711,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="16"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2073,102 +2112,102 @@
       <c r="J12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="29"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="44" t="s">
+      <c r="O13" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="43" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="32" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="46"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="48" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="49"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="12" t="s">
@@ -2180,11 +2219,11 @@
       <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="3" t="s">
         <v>55</v>
       </c>
@@ -2194,7 +2233,7 @@
       <c r="I16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="3" t="s">
         <v>57</v>
       </c>
@@ -2215,9 +2254,9 @@
         <v>61</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="3"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -2227,8 +2266,8 @@
       <c r="K17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="3" t="s">
         <v>64</v>
       </c>
@@ -2241,21 +2280,21 @@
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="38" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="22"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2301,10 +2340,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2858,7 +2897,7 @@
       <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2894,7 +2933,7 @@
       <c r="K16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="5" t="s">
         <v>77</v>
       </c>
@@ -2930,7 +2969,7 @@
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="5" t="s">
         <v>77</v>
       </c>
@@ -3344,7 +3383,7 @@
       <c r="L28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="20" t="s">
         <v>89</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -3501,7 +3540,7 @@
         <v>34</v>
       </c>
       <c r="O32" s="15"/>
-      <c r="P32" s="20"/>
+      <c r="P32" s="21"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:16">
       <c r="A33" s="2"/>
@@ -3524,9 +3563,9 @@
       <c r="H33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
         <v>33</v>
@@ -3534,8 +3573,8 @@
       <c r="N33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
@@ -3654,17 +3693,17 @@
       <c r="H37" s="5"/>
       <c r="I37" s="15"/>
       <c r="J37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
@@ -3680,121 +3719,185 @@
       <c r="H38" s="5"/>
       <c r="I38" s="15"/>
       <c r="J38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
       </c>
       <c r="L38" s="15"/>
-      <c r="M38" s="19" t="s">
-        <v>89</v>
+      <c r="M38" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18">
+        <v>16</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="3" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I42" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" s="3" t="s">
+      <c r="J42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="3" t="s">
+      <c r="N42" s="3"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="2"/>
-      <c r="B40" s="12" t="s">
+    <row r="43" spans="1:16">
+      <c r="A43" s="2"/>
+      <c r="B43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="16"/>
-      <c r="P40" s="3" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="2"/>
-      <c r="B41" s="12" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="2"/>
+      <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="16"/>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="11"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
@@ -3802,30 +3905,31 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A21"/>
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="E36:E38"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I42:I43"/>
     <mergeCell ref="L36:L38"/>
     <mergeCell ref="P36:P38"/>
   </mergeCells>
@@ -3840,14 +3944,14 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3861,7 +3965,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>56</v>
@@ -3885,10 +3989,10 @@
         <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3896,25 +4000,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>104</v>
+      <c r="G3" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -3928,25 +4032,25 @@
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>104</v>
+      <c r="G4" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -3959,29 +4063,29 @@
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>106</v>
+      <c r="B5" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -3992,7 +4096,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -4001,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>104</v>
+      <c r="G6" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -4024,7 +4128,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -4033,16 +4137,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>103</v>
+      <c r="G7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -4056,7 +4160,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -4065,16 +4169,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>104</v>
+      <c r="G8" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -4087,26 +4191,26 @@
       <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>103</v>
+      <c r="B9" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -4119,17 +4223,17 @@
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>109</v>
+      <c r="B10" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -4137,11 +4241,11 @@
       <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="50" t="s">
-        <v>106</v>
+      <c r="H10" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -4161,8 +4265,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4171,11 +4275,15 @@
     <col min="4" max="4" width="24.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="19.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4188,39 +4296,36 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4228,153 +4333,144 @@
         <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>70</v>
@@ -4382,34 +4478,31 @@
       <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
@@ -4417,34 +4510,31 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>72</v>
@@ -4452,34 +4542,31 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>73</v>
@@ -4487,104 +4574,95 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>76</v>
@@ -4592,34 +4670,31 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>104</v>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>78</v>
@@ -4627,34 +4702,31 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>104</v>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>79</v>
@@ -4662,34 +4734,31 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>104</v>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>123</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>76</v>
@@ -4697,34 +4766,31 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>78</v>
@@ -4732,34 +4798,31 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>79</v>
@@ -4767,63 +4830,57 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>106</v>
+      <c r="B19" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>107</v>
+      <c r="G19" s="4">
+        <v>6</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -4832,33 +4889,30 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -4867,33 +4921,30 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -4902,33 +4953,30 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -4937,33 +4985,30 @@
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -4972,33 +5017,30 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>8</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -5007,33 +5049,30 @@
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>125</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -5048,27 +5087,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
       </c>
       <c r="I26" s="5">
-        <v>10</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -5077,33 +5113,30 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -5112,133 +5145,121 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>126</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>103</v>
+      <c r="B29" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:11">
+      <c r="G29" s="4">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:10">
       <c r="A30" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:11">
+      <c r="G30" s="4">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>104</v>
+      <c r="G31" s="4">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
       </c>
       <c r="J31" s="7">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -5249,68 +5270,62 @@
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>107</v>
+      <c r="G32" s="4">
+        <v>6</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>104</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="50" t="s">
-        <v>109</v>
+      <c r="B33" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>10</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="11" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E35" s="11"/>
     </row>

--- a/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
+++ b/Single_cycle_CPU/单周期cpu设计表-修订.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="128">
   <si>
     <t>数据通路表（示例）</t>
   </si>
@@ -410,8 +410,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -446,76 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,11 +460,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,16 +520,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,9 +552,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +577,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,13 +604,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,13 +700,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,43 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,37 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,37 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,24 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1006,17 +988,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,13 +1015,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,6 +1044,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1063,10 +1063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,137 +1075,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1260,9 +1260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1270,9 +1267,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,10 +1690,10 @@
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="25"/>
+    <col min="3" max="3" width="9" style="23"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="16.8833333333333" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.8833333333333" style="23" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
@@ -1711,43 +1705,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="16"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2112,102 +2106,102 @@
       <c r="J12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="31"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="45" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="34" t="s">
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="48"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="50" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="51"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="12" t="s">
@@ -2219,11 +2213,11 @@
       <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="3" t="s">
         <v>55</v>
       </c>
@@ -2233,7 +2227,7 @@
       <c r="I16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="3" t="s">
         <v>57</v>
       </c>
@@ -2254,9 +2248,9 @@
         <v>61</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="3"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -2266,8 +2260,8 @@
       <c r="K17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="3" t="s">
         <v>64</v>
       </c>
@@ -2280,21 +2274,21 @@
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="40" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="24"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2897,7 +2891,7 @@
       <c r="K15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2933,7 +2927,7 @@
       <c r="K16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="5" t="s">
         <v>77</v>
       </c>
@@ -2969,7 +2963,7 @@
       <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="5" t="s">
         <v>77</v>
       </c>
@@ -3383,7 +3377,7 @@
       <c r="L28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="19" t="s">
         <v>89</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -3540,7 +3534,7 @@
         <v>34</v>
       </c>
       <c r="O32" s="15"/>
-      <c r="P32" s="21"/>
+      <c r="P32" s="20"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:16">
       <c r="A33" s="2"/>
@@ -3563,9 +3557,9 @@
       <c r="H33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
         <v>33</v>
@@ -3573,8 +3567,8 @@
       <c r="N33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
@@ -3735,78 +3729,78 @@
       <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18">
+      <c r="L39" s="16"/>
+      <c r="M39" s="16">
         <v>16</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L40" s="18"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N40" s="18">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
       <c r="J41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
@@ -3835,7 +3829,7 @@
       <c r="J42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="18"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="3" t="s">
         <v>95</v>
       </c>
@@ -3860,15 +3854,15 @@
       <c r="G43" s="3"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="22" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N43" s="22"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="16"/>
       <c r="P43" s="3" t="s">
         <v>55</v>
@@ -3893,7 +3887,7 @@
         <v>98</v>
       </c>
       <c r="N44" s="12"/>
-      <c r="O44" s="24"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="16"/>
     </row>
   </sheetData>
@@ -4014,10 +4008,10 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="50" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="4">
@@ -4046,10 +4040,10 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="50" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="4">
@@ -4063,7 +4057,7 @@
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="4">
@@ -4110,10 +4104,10 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>107</v>
       </c>
       <c r="I6" s="4">
@@ -4142,10 +4136,10 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>106</v>
       </c>
       <c r="I7" s="4">
@@ -4174,7 +4168,7 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="50" t="s">
         <v>107</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -4191,7 +4185,7 @@
       <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="4">
@@ -4223,7 +4217,7 @@
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="4">
@@ -4241,7 +4235,7 @@
       <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="50" t="s">
         <v>109</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -4266,7 +4260,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4847,7 +4841,7 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="50" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="4">
@@ -5077,8 +5071,8 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>76</v>
@@ -5167,7 +5161,7 @@
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="50" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="4">
@@ -5295,7 +5289,7 @@
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="4">
